--- a/library/to.xlsx
+++ b/library/to.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3DED7-A6AB-41B2-8B95-5FE93E97B22E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9BA129-285D-438F-B3A6-699FE3CC2B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23205" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23040" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +259,22 @@
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,7 +463,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -467,14 +482,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,56 +518,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -543,7 +534,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,8 +953,8 @@
   </sheetPr>
   <dimension ref="A2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:I42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,7 +964,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
@@ -930,17 +973,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="15" t="s">
@@ -956,10 +999,10 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16"/>
@@ -972,14 +1015,14 @@
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="20"/>
       <c r="F9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="21"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -987,8 +1030,8 @@
     <row r="10" spans="1:12">
       <c r="A10" s="9"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="20"/>
       <c r="F10" s="22"/>
       <c r="G10" s="20"/>
@@ -1000,14 +1043,14 @@
     <row r="11" spans="1:12" ht="16.5" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="20"/>
       <c r="F11" s="29" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="21"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1015,8 +1058,8 @@
     <row r="12" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23"/>
@@ -1032,10 +1075,10 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
@@ -1046,13 +1089,13 @@
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="21"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1077,10 +1120,10 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="27"/>
       <c r="H16" s="16"/>
       <c r="I16" s="18"/>
@@ -1089,14 +1132,14 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
@@ -1110,7 +1153,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="31"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="25.5" customHeight="1">
@@ -1120,8 +1163,8 @@
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="27"/>
       <c r="H19" s="16"/>
       <c r="I19" s="18"/>
@@ -1130,14 +1173,14 @@
     </row>
     <row r="20" spans="1:11" ht="23.25" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
@@ -1159,13 +1202,13 @@
       <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
@@ -1174,13 +1217,13 @@
       <c r="B23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
@@ -1191,24 +1234,24 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="27"/>
       <c r="H24" s="16"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
     </row>
     <row r="25" spans="1:11" ht="26.25" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
@@ -1222,15 +1265,15 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:11" ht="24.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="16"/>
       <c r="E27" s="26" t="s">
         <v>13</v>
@@ -1244,13 +1287,13 @@
     </row>
     <row r="28" spans="1:11" ht="27" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="28"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="21"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1276,10 +1319,10 @@
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="74"/>
       <c r="H30" s="20"/>
       <c r="I30" s="21"/>
       <c r="J30" s="9"/>
@@ -1293,10 +1336,10 @@
       <c r="E31" s="11"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="9"/>
@@ -1317,13 +1360,13 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="9"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="28"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="21"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1349,10 +1392,10 @@
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="9"/>
@@ -1366,8 +1409,8 @@
       <c r="E36" s="11"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
@@ -1390,13 +1433,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="9"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="21"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -1409,14 +1452,14 @@
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="21"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="9"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
@@ -1429,31 +1472,31 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="9"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="59" t="s">
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="61"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="9"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="51" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="62"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
@@ -1474,11 +1517,11 @@
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -1540,7 +1583,7 @@
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
@@ -1595,11 +1638,11 @@
       <c r="D52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="9"/>
@@ -1609,11 +1652,11 @@
       <c r="D53" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="9"/>
@@ -1626,11 +1669,11 @@
       <c r="F54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="41"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="9"/>
@@ -1640,89 +1683,89 @@
       <c r="D55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="41"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="9"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="9"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="9"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="9"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="9"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="9"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:11">
       <c r="B62" s="2"/>
@@ -1739,14 +1782,14 @@
     <row r="63" spans="1:11">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
     </row>
     <row r="64" spans="1:11">
       <c r="B64" s="2"/>
@@ -1803,10 +1846,10 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="3"/>
@@ -1909,6 +1952,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C8:D12"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="B42:D42"/>
@@ -1922,28 +1981,12 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="E42:I42"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C8:D12"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>